--- a/spotify_project/model/data/playlist_comparison.xlsx
+++ b/spotify_project/model/data/playlist_comparison.xlsx
@@ -660,7 +660,7 @@
         <v>0.5596028368794326</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5355263157894737</v>
+        <v>0.528</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0.6331502256608638</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5065789473684211</v>
+        <v>0.5133333333333334</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0.2220502901353964</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7236842105263159</v>
+        <v>0.7333333333333334</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>1.328438426821406</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3039473684210527</v>
+        <v>0.2933333333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -2595,7 +2595,7 @@
         <v>0.7044470234257468</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1013157894736842</v>
+        <v>0.1026666666666667</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0.6675349237051362</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3328947368421053</v>
+        <v>0.3226666666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>0.4571467870191274</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.5866666666666667</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -4659,7 +4659,7 @@
         <v>0.08094906511927795</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5644736842105265</v>
+        <v>0.5573333333333335</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -4788,7 +4788,7 @@
         <v>0.3842493015258972</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2894736842105263</v>
+        <v>0.2933333333333333</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
@@ -4917,7 +4917,7 @@
         <v>0.9661895551257252</v>
       </c>
       <c r="G35" t="n">
-        <v>0.3763157894736843</v>
+        <v>0.3813333333333334</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -5046,7 +5046,7 @@
         <v>0.4693023855577046</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7671052631578947</v>
+        <v>0.7773333333333334</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -5175,7 +5175,7 @@
         <v>0.7518057167418869</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4197368421052632</v>
+        <v>0.4253333333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -5304,7 +5304,7 @@
         <v>0.551719750698474</v>
       </c>
       <c r="G38" t="n">
-        <v>0.636842105263158</v>
+        <v>0.6306666666666667</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -5562,7 +5562,7 @@
         <v>0.3330152589727056</v>
       </c>
       <c r="G40" t="n">
-        <v>0.3763157894736843</v>
+        <v>0.3666666666666667</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -5691,7 +5691,7 @@
         <v>0.2344465935955297</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6657894736842106</v>
+        <v>0.66</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -5820,7 +5820,7 @@
         <v>0.1986297012679991</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8973684210526316</v>
+        <v>0.9093333333333334</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -6207,7 +6207,7 @@
         <v>0.6799914033956587</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7236842105263159</v>
+        <v>0.7186666666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -6336,7 +6336,7 @@
         <v>0.3666056307758435</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9407894736842106</v>
+        <v>0.9533333333333335</v>
       </c>
       <c r="H46" t="n">
         <v>1</v>
@@ -6465,7 +6465,7 @@
         <v>0.5600361057382331</v>
       </c>
       <c r="G47" t="n">
-        <v>0.361842105263158</v>
+        <v>0.3666666666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -6594,7 +6594,7 @@
         <v>1.066346872985171</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4486842105263158</v>
+        <v>0.4400000000000001</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -7497,7 +7497,7 @@
         <v>0.6436088545024714</v>
       </c>
       <c r="G55" t="n">
-        <v>0.636842105263158</v>
+        <v>0.6453333333333334</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -7626,7 +7626,7 @@
         <v>0.6918581560283686</v>
       </c>
       <c r="G56" t="n">
-        <v>0.3763157894736843</v>
+        <v>0.3813333333333334</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -7755,7 +7755,7 @@
         <v>0.4380107457554265</v>
       </c>
       <c r="G57" t="n">
-        <v>0.636842105263158</v>
+        <v>0.6306666666666667</v>
       </c>
       <c r="H57" t="n">
         <v>1</v>
@@ -7884,7 +7884,7 @@
         <v>0.5350268643885665</v>
       </c>
       <c r="G58" t="n">
-        <v>0.6078947368421054</v>
+        <v>0.6160000000000001</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -8013,7 +8013,7 @@
         <v>0.583432624113475</v>
       </c>
       <c r="G59" t="n">
-        <v>0.55</v>
+        <v>0.5573333333333335</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -8142,7 +8142,7 @@
         <v>0.4148308618095851</v>
       </c>
       <c r="G60" t="n">
-        <v>0.6657894736842106</v>
+        <v>0.6746666666666666</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -8400,7 +8400,7 @@
         <v>0.6192856221792391</v>
       </c>
       <c r="G62" t="n">
-        <v>0.4052631578947368</v>
+        <v>0.396</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -8787,7 +8787,7 @@
         <v>0.7497717601547387</v>
       </c>
       <c r="G65" t="n">
-        <v>0.4776315789473685</v>
+        <v>0.484</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -10077,7 +10077,7 @@
         <v>0.9458018482699333</v>
       </c>
       <c r="G75" t="n">
-        <v>1.027631578947368</v>
+        <v>1.041333333333333</v>
       </c>
       <c r="H75" t="n">
         <v>1</v>
@@ -10851,7 +10851,7 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>0.4486842105263158</v>
+        <v>0.4400000000000001</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -10980,7 +10980,7 @@
         <v>0.4276604341285191</v>
       </c>
       <c r="G82" t="n">
-        <v>0.2171052631578947</v>
+        <v>0.2053333333333334</v>
       </c>
       <c r="H82" t="n">
         <v>1</v>
@@ -11109,7 +11109,7 @@
         <v>1.136861379754997</v>
       </c>
       <c r="G83" t="n">
-        <v>0.4197368421052632</v>
+        <v>0.4253333333333333</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -11238,7 +11238,7 @@
         <v>0.6790285837094346</v>
       </c>
       <c r="G84" t="n">
-        <v>0.7960526315789475</v>
+        <v>0.8066666666666666</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -11367,7 +11367,7 @@
         <v>0.6927728347302815</v>
       </c>
       <c r="G85" t="n">
-        <v>0.6223684210526316</v>
+        <v>0.6160000000000001</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -11625,7 +11625,7 @@
         <v>0.3179952718676123</v>
       </c>
       <c r="G87" t="n">
-        <v>0.7381578947368421</v>
+        <v>0.7333333333333334</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -11754,7 +11754,7 @@
         <v>0.7997059961315279</v>
       </c>
       <c r="G88" t="n">
-        <v>0.318421052631579</v>
+        <v>0.3080000000000001</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -11883,7 +11883,7 @@
         <v>1.327054373522458</v>
       </c>
       <c r="G89" t="n">
-        <v>0.2605263157894737</v>
+        <v>0.2493333333333334</v>
       </c>
       <c r="H89" t="n">
         <v>1</v>
@@ -12012,7 +12012,7 @@
         <v>0.1099058671824629</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1736842105263158</v>
+        <v>0.1613333333333334</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -12270,7 +12270,7 @@
         <v>0.2573857726198152</v>
       </c>
       <c r="G92" t="n">
-        <v>0.05789473684210526</v>
+        <v>0.05866666666666667</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -12399,7 +12399,7 @@
         <v>0.2536548463356973</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1592105263157895</v>
+        <v>0.1613333333333334</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -12528,7 +12528,7 @@
         <v>0.5380116054158606</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02894736842105263</v>
+        <v>0.02933333333333334</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -12657,7 +12657,7 @@
         <v>0.7761289490651192</v>
       </c>
       <c r="G95" t="n">
-        <v>0.8250000000000001</v>
+        <v>0.8360000000000001</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -12786,7 +12786,7 @@
         <v>0.8267973350526542</v>
       </c>
       <c r="G96" t="n">
-        <v>0.6223684210526316</v>
+        <v>0.6160000000000001</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -12915,7 +12915,7 @@
         <v>0.7869727057812164</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02894736842105263</v>
+        <v>0.02933333333333334</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -13044,7 +13044,7 @@
         <v>0.439057812164195</v>
       </c>
       <c r="G98" t="n">
-        <v>0.55</v>
+        <v>0.5573333333333335</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -13302,7 +13302,7 @@
         <v>0.4264569095207393</v>
       </c>
       <c r="G100" t="n">
-        <v>0.6513157894736842</v>
+        <v>0.6453333333333334</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -13431,7 +13431,7 @@
         <v>0.7313698689017837</v>
       </c>
       <c r="G101" t="n">
-        <v>0.5355263157894737</v>
+        <v>0.528</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
